--- a/docs/StructureDefinition-medication-request.xlsx
+++ b/docs/StructureDefinition-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
